--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dirgh\Documents\UiPath\Calculate Client Security Hash\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dirgh\Documents\UiPath\CalculateClientSecurityHash\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21CE09B3-D0FE-44A4-A4F4-8CFEFD53E08A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D159BCF-01AD-4E7B-BBEB-B1D5A51F6ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4170" yWindow="1965" windowWidth="19200" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="2160" windowWidth="19200" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -547,7 +547,7 @@
   <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
